--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFD9155-9266-4403-8330-1D3AE0D99726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858C1745-129B-476C-9A89-006E07F02F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="29115" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,12 +46,42 @@
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당 학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌에 대한 간단한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염승욱</t>
+  </si>
+  <si>
+    <t>남자</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,23 +439,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\java_maven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AB682-1442-4773-B117-B6DD88F1FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08985E80-4C1E-4951-B50F-97AEE30221E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="5880" windowWidth="19200" windowHeight="11170" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,9 +62,6 @@
     <t>남자</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>강좌이름test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +99,10 @@
   </si>
   <si>
     <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴소과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -316,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,12 +470,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,28 +492,28 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -520,22 +521,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08985E80-4C1E-4951-B50F-97AEE30221E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1165DEA-D285-465F-AA07-76B8BCFA285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="5460" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,12 +104,49 @@
   <si>
     <t>컴소과</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정찬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김영진</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,78 +504,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" t="s" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,12 +104,16 @@
   <si>
     <t>컴소과</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -476,67 +480,95 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1165DEA-D285-465F-AA07-76B8BCFA285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC7A87D-6E20-40A4-8CEB-3CD34CB260F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="3890" yWindow="8760" windowWidth="19200" windowHeight="11170" xr2:uid="{B2074B0D-B7BE-4D9D-80BC-E29C2D79EC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,37 +58,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>강의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>염승욱</t>
   </si>
   <si>
-    <t>남자</t>
-  </si>
-  <si>
-    <t>강좌이름test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강좌이름test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강좌이름test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당 교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 학생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대학생</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>테스트</t>
+  </si>
+  <si>
+    <t>테스트2</t>
+  </si>
+  <si>
+    <t>테스트3</t>
+  </si>
+  <si>
+    <t>자바</t>
+  </si>
+  <si>
+    <t>컴소</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>자바에대하여배우세요</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,59 +115,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴소과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정찬</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김영진</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>학생 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 명단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염승욱 , 설효주, 정찬 , 김영 진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트1, 테스 트2, 테 스 트 3, 테스트4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,9 +204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,39 +214,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -302,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -354,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,13 +409,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -428,6 +417,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -492,128 +488,176 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0F1571-BE80-4B43-9362-906F41C16B36}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s" s="0">
-        <v>16</v>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -527,6 +533,15 @@
       <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s" s="0">

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08985E80-4C1E-4951-B50F-97AEE30221E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D1D47-0737-4569-B6B5-B1BAFFB375D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="6195" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,63 +56,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>강의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴소과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학생 명단 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바를 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴네를 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 컴소과</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JSP를 설명</t>
+  </si>
+  <si>
+    <t>컴구이</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 컴공과</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 컴구이를 설명</t>
+  </si>
+  <si>
+    <t>컴공과</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>컴구이를설명</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>염승욱</t>
   </si>
   <si>
-    <t>남자</t>
-  </si>
-  <si>
-    <t>강좌이름test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강좌이름test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강좌이름test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당 교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 학생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대학생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴소과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>설효주</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>염승욱, 설효주, 김영진, 정찬, 탁원준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -502,88 +551,170 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="N1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="H1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I1" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s" s="0">
+      <c r="D2" s="0">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="F2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="J2" s="0">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J3" s="0">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="0">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
+      <c r="E4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J4" s="0">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s" s="0">
-        <v>7</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>18</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="0">
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D1D47-0737-4569-B6B5-B1BAFFB375D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB519A9-4F29-40D2-8FAA-70A90989C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,17 +150,10 @@
     <t>50</t>
   </si>
   <si>
-    <t>설효주</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>염승욱, 설효주, 김영진, 정찬, 탁원준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바</t>
+    <t>염승욱,염승욱</t>
+  </si>
+  <si>
+    <t>자바4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +161,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,191 +521,158 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="s" s="0">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="0">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>34</v>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J3" s="0">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>34</v>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J4" s="0">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB519A9-4F29-40D2-8FAA-70A90989C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEAF9A0-FD9C-4F0E-8E97-82918CB02754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="5955" yWindow="3345" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,11 @@
     <t>50</t>
   </si>
   <si>
-    <t>염승욱,염승욱</t>
-  </si>
-  <si>
     <t>자바4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염승욱,설효주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +522,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -602,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEAF9A0-FD9C-4F0E-8E97-82918CB02754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200E5ED-170A-4B4E-ABB5-49045C4D42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3345" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="5190" yWindow="3945" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>염승욱,설효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염승욱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +526,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,6 +629,12 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A733D-C17A-4158-AD62-E3416B87A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F1428-9E70-4C98-A489-B8886073C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4305" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="5310" yWindow="2310" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,87 +96,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴네를 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 컴소과</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JSP를 설명</t>
-  </si>
-  <si>
-    <t>컴구이</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 컴공과</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 컴구이를 설명</t>
-  </si>
-  <si>
-    <t>컴공과</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>컴구이를설명</t>
+    <t>염승욱</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>자바4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3456789</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>염승욱</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>자바4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염승욱,설효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염승욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3456789</t>
+    <t>염승욱,염승욱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,183 +487,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s" s="0">
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J2" s="0">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="L2" s="0">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
         <v>123</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>123456789</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="0">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="0">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="O2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="0">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\java_maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F1428-9E70-4C98-A489-B8886073C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F76E51-5538-4D46-84EA-EE6481B3E5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2310" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
+    <workbookView xWindow="31980" yWindow="2685" windowWidth="21600" windowHeight="11400" xr2:uid="{A676502E-A6BB-4001-8E2E-7983CD3284F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,16 +120,60 @@
     <t>3456789</t>
   </si>
   <si>
+    <t>자바</t>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어공학과</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>자바에 대한 간단한 설명</t>
+  </si>
+  <si>
+    <t>염승욱,김민식,최소언,강아현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>염승욱,염승욱</t>
+    <t>정찬</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>객체지향프로그래밍||</t>
+  </si>
+  <si>
+    <t>컴소과</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>객체지향을배워보자</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,106 +531,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0693-40BD-4DE8-B5EE-D0EAB6B75B5C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J2" s="0">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="L2" s="0">
+        <v>123</v>
+      </c>
+      <c r="M2" s="0">
+        <v>123456789</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="L2">
-        <v>123</v>
-      </c>
-      <c r="M2">
-        <v>123456789</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/LectureStaff_data.xlsx
+++ b/LectureStaff_data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>객체지향을배워보자</t>
+  </si>
+  <si>
+    <t>A123456</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
